--- a/data/trans_orig/P04B3_2_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P04B3_2_2023-Habitat-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>135497</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>115540</v>
+        <v>115097</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>159237</v>
+        <v>159577</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1961712694275919</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.167277525690416</v>
+        <v>0.1666364927413609</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2305407410650665</v>
+        <v>0.2310336184112318</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>169</v>
@@ -762,19 +762,19 @@
         <v>109947</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>93406</v>
+        <v>93841</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>125049</v>
+        <v>126007</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1497541693717849</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1272249253337277</v>
+        <v>0.1278178796769635</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1703245782532196</v>
+        <v>0.1716292782099095</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>308</v>
@@ -783,19 +783,19 @@
         <v>245444</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>218097</v>
+        <v>220383</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>273957</v>
+        <v>276717</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1722546774919185</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1530623923064688</v>
+        <v>0.1546665866946984</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1922657009574504</v>
+        <v>0.1942022283519044</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>75511</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>60194</v>
+        <v>61524</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92008</v>
+        <v>93110</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1093234868944948</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08714733831025941</v>
+        <v>0.08907378461790032</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1332080443910774</v>
+        <v>0.1348029594397724</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>156</v>
@@ -833,19 +833,19 @@
         <v>97035</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>82829</v>
+        <v>82117</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>113835</v>
+        <v>112643</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1321677104484468</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.112818382162623</v>
+        <v>0.1118479371001795</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.155050585187585</v>
+        <v>0.1534269367068456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>240</v>
@@ -854,19 +854,19 @@
         <v>172546</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>151400</v>
+        <v>150008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>195840</v>
+        <v>194392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1210940622249288</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.106254193899468</v>
+        <v>0.1052771942600298</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1374419417014265</v>
+        <v>0.1364262497857411</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>82547</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>65618</v>
+        <v>66263</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>103256</v>
+        <v>104771</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1195103687459263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.09500139642759607</v>
+        <v>0.09593516431175642</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1494920249134055</v>
+        <v>0.1516857358157275</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>139</v>
@@ -904,19 +904,19 @@
         <v>84960</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>71792</v>
+        <v>70895</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>100517</v>
+        <v>101361</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1157213071198015</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.09778562138399502</v>
+        <v>0.09656300995424615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1369104793881215</v>
+        <v>0.1380599202833211</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>221</v>
@@ -925,19 +925,19 @@
         <v>167507</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>144178</v>
+        <v>146778</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>191650</v>
+        <v>194727</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1175580399571353</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1011853625912478</v>
+        <v>0.1030102915103082</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1345017833991371</v>
+        <v>0.1366611704095637</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>397155</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>370179</v>
+        <v>366769</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>424349</v>
+        <v>425451</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.574994874931987</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5359394704906207</v>
+        <v>0.5310023487821722</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6143666133134315</v>
+        <v>0.6159616568604582</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>777</v>
@@ -975,19 +975,19 @@
         <v>442238</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>420021</v>
+        <v>422584</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>464363</v>
+        <v>464453</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.6023568130599667</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5720951997709866</v>
+        <v>0.5755864507657962</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6324920521036982</v>
+        <v>0.63261486897608</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1202</v>
@@ -996,19 +996,19 @@
         <v>839392</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>801347</v>
+        <v>802264</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>873795</v>
+        <v>875549</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5890932203260175</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.5623928752344288</v>
+        <v>0.5630361376830764</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6132371424113037</v>
+        <v>0.6144684506128775</v>
       </c>
     </row>
     <row r="8">
@@ -1100,19 +1100,19 @@
         <v>223973</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>196636</v>
+        <v>195312</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>253211</v>
+        <v>254364</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2135274472709886</v>
+        <v>0.2135274472709885</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1874655115273473</v>
+        <v>0.1862032875485517</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2414020123086502</v>
+        <v>0.2425011085107843</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>308</v>
@@ -1121,19 +1121,19 @@
         <v>227035</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>204374</v>
+        <v>206206</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>252023</v>
+        <v>252608</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.212497225240843</v>
+        <v>0.2124972252408429</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1912867138025908</v>
+        <v>0.193001632853265</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2358851129067631</v>
+        <v>0.2364322491771907</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>522</v>
@@ -1142,19 +1142,19 @@
         <v>451008</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>414282</v>
+        <v>415155</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>488444</v>
+        <v>489314</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2130075926399796</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1956622453448641</v>
+        <v>0.1960743075847431</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.230688500248856</v>
+        <v>0.2310993867579526</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>135461</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>112770</v>
+        <v>113774</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>159821</v>
+        <v>161733</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1291440364657601</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.107510653292874</v>
+        <v>0.1084679456736743</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1523681044275005</v>
+        <v>0.1541904309665662</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>212</v>
@@ -1192,19 +1192,19 @@
         <v>157264</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>137022</v>
+        <v>136409</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>179616</v>
+        <v>178279</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1471940611588844</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1282475167830574</v>
+        <v>0.1276745110696048</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1681139728307328</v>
+        <v>0.1668624933474919</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>342</v>
@@ -1213,19 +1213,19 @@
         <v>292726</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>261789</v>
+        <v>265202</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>326657</v>
+        <v>326008</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1382521594256428</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1236410456409729</v>
+        <v>0.1252530569128057</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1542777656202613</v>
+        <v>0.1539709769525915</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>203345</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>176476</v>
+        <v>173999</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>239319</v>
+        <v>234308</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.193861851802149</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1682458611983251</v>
+        <v>0.1658840720928624</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2281584841059894</v>
+        <v>0.2233808501344366</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>252</v>
@@ -1263,19 +1263,19 @@
         <v>189358</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>167629</v>
+        <v>168442</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>213301</v>
+        <v>213448</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1772329265857132</v>
+        <v>0.1772329265857133</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.156895328155869</v>
+        <v>0.157655862896362</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1996418693474443</v>
+        <v>0.1997796974149161</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>421</v>
@@ -1284,19 +1284,19 @@
         <v>392703</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>357574</v>
+        <v>353543</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>435601</v>
+        <v>428362</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1854708219760411</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1688792745403605</v>
+        <v>0.1669757439397648</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.205731023731915</v>
+        <v>0.2023120301981763</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>486138</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>448520</v>
+        <v>446796</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>523655</v>
+        <v>520563</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.4634666644611025</v>
+        <v>0.4634666644611024</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.427603369496332</v>
+        <v>0.4259591973021655</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.49923371848883</v>
+        <v>0.4962862451056357</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>741</v>
@@ -1334,19 +1334,19 @@
         <v>494758</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>464326</v>
+        <v>467185</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>523987</v>
+        <v>526315</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.4630757870145593</v>
+        <v>0.4630757870145594</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4345925571597581</v>
+        <v>0.4372692439682429</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4904339567346522</v>
+        <v>0.4926128633677609</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1192</v>
@@ -1355,19 +1355,19 @@
         <v>980896</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>935496</v>
+        <v>932813</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1032421</v>
+        <v>1030238</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4632694259583365</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.4418273199243276</v>
+        <v>0.4405601666058758</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4876044149229255</v>
+        <v>0.4865735479868196</v>
       </c>
     </row>
     <row r="13">
@@ -1459,19 +1459,19 @@
         <v>94081</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75101</v>
+        <v>75727</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>115014</v>
+        <v>116553</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1173235581572921</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.09365481530916442</v>
+        <v>0.09443452764275359</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1434278157074373</v>
+        <v>0.1453465975223669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>125</v>
@@ -1480,19 +1480,19 @@
         <v>100540</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85086</v>
+        <v>81788</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>117094</v>
+        <v>117092</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1238856937439446</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1048429761990138</v>
+        <v>0.1007796653747696</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1442845349314493</v>
+        <v>0.1442818407363408</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -1501,19 +1501,19 @@
         <v>194621</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>167778</v>
+        <v>169572</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>219905</v>
+        <v>222168</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.120624263629307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.103987269267157</v>
+        <v>0.1050995144910765</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1362950742435186</v>
+        <v>0.1376975843630567</v>
       </c>
     </row>
     <row r="15">
@@ -1530,19 +1530,19 @@
         <v>112464</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>93708</v>
+        <v>92344</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>137597</v>
+        <v>136585</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1402481343615637</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1168583939477405</v>
+        <v>0.1151568556472036</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.1715894809973805</v>
+        <v>0.170327469772791</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>140</v>
@@ -1551,19 +1551,19 @@
         <v>104721</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>89187</v>
+        <v>88839</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>124347</v>
+        <v>123720</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.1290379749271654</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.109897115027639</v>
+        <v>0.1094675898167467</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1532211671968535</v>
+        <v>0.1524481955982299</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>240</v>
@@ -1572,19 +1572,19 @@
         <v>217185</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>190391</v>
+        <v>189252</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>246041</v>
+        <v>245418</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.134609507408695</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1180024389945346</v>
+        <v>0.1172964991289996</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.15249427712151</v>
+        <v>0.1521079375952223</v>
       </c>
     </row>
     <row r="16">
@@ -1601,19 +1601,19 @@
         <v>229221</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>201600</v>
+        <v>199146</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262605</v>
+        <v>258189</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2858487686298676</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2514043790906231</v>
+        <v>0.2483441086044929</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3274809477341102</v>
+        <v>0.3219741549076874</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>287</v>
@@ -1622,19 +1622,19 @@
         <v>224094</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>202309</v>
+        <v>202478</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>248784</v>
+        <v>250288</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2761302051726741</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2492869814056553</v>
+        <v>0.2494949781609903</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.306553358566287</v>
+        <v>0.3084060341591454</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>476</v>
@@ -1643,19 +1643,19 @@
         <v>453315</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>415778</v>
+        <v>414429</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>490990</v>
+        <v>491974</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2809604033774747</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2576954965619839</v>
+        <v>0.2568592316414482</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3043112647962833</v>
+        <v>0.3049209359466401</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>366129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>332422</v>
+        <v>336752</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>398396</v>
+        <v>403276</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4565795388512767</v>
+        <v>0.4565795388512766</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4145452583584642</v>
+        <v>0.4199447606682449</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4968182334323605</v>
+        <v>0.5029040645230489</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>494</v>
@@ -1693,19 +1693,19 @@
         <v>382197</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>354112</v>
+        <v>355876</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>408955</v>
+        <v>407321</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4709461261562159</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4363388746453077</v>
+        <v>0.4385127071877051</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5039165912782353</v>
+        <v>0.5019041465740331</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>788</v>
@@ -1714,19 +1714,19 @@
         <v>748326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>704759</v>
+        <v>705266</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>787465</v>
+        <v>786502</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.4638058255845233</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4368035145113097</v>
+        <v>0.4371173613027983</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4880634851517817</v>
+        <v>0.4874667321890767</v>
       </c>
     </row>
     <row r="18">
@@ -1818,19 +1818,19 @@
         <v>236167</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>210371</v>
+        <v>207107</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>266537</v>
+        <v>262706</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2389343249140281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2128354623530497</v>
+        <v>0.2095338401712565</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2696599842584757</v>
+        <v>0.2657837030781883</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>382</v>
@@ -1839,19 +1839,19 @@
         <v>289463</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>262579</v>
+        <v>264913</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>317399</v>
+        <v>317137</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2590691666541114</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2350078158799535</v>
+        <v>0.237096477380477</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2840718930423977</v>
+        <v>0.2838374361557106</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>625</v>
@@ -1860,19 +1860,19 @@
         <v>525630</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>485959</v>
+        <v>485619</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>566798</v>
+        <v>565518</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2496180114945815</v>
+        <v>0.2496180114945816</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2307784326351623</v>
+        <v>0.2306171202448821</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2691679890523881</v>
+        <v>0.2685601298615939</v>
       </c>
     </row>
     <row r="20">
@@ -1889,19 +1889,19 @@
         <v>165816</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>141999</v>
+        <v>140270</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193968</v>
+        <v>191452</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1677584631455765</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1436627434748448</v>
+        <v>0.1419136724269502</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1962411234763851</v>
+        <v>0.1936949544234837</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>241</v>
@@ -1910,19 +1910,19 @@
         <v>170844</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>152194</v>
+        <v>150047</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193534</v>
+        <v>191352</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1529055788745651</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1362133606724215</v>
+        <v>0.1342914991871801</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.173212328077617</v>
+        <v>0.1712598085929211</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>401</v>
@@ -1931,19 +1931,19 @@
         <v>336660</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>303557</v>
+        <v>308079</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>371856</v>
+        <v>372160</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1598774198070128</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1441571502124535</v>
+        <v>0.1463044031250046</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1765918710369812</v>
+        <v>0.1767359900463725</v>
       </c>
     </row>
     <row r="21">
@@ -1960,19 +1960,19 @@
         <v>167548</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>145450</v>
+        <v>144405</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>192875</v>
+        <v>193930</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1695112857506747</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1471545873309738</v>
+        <v>0.1460972375335775</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1951353043304963</v>
+        <v>0.1962023419885331</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>273</v>
@@ -1981,19 +1981,19 @@
         <v>197000</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>173881</v>
+        <v>173668</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>217030</v>
+        <v>220182</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1763149908596653</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.155623139695067</v>
+        <v>0.1554322299294879</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1942416615946639</v>
+        <v>0.1970630548751815</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>455</v>
@@ -2002,19 +2002,19 @@
         <v>364548</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>330875</v>
+        <v>334584</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>399268</v>
+        <v>400915</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1731213788375382</v>
+        <v>0.1731213788375383</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1571299799867721</v>
+        <v>0.1588915682048771</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.189609442282208</v>
+        <v>0.1903916920152929</v>
       </c>
     </row>
     <row r="22">
@@ -2031,19 +2031,19 @@
         <v>418888</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>386213</v>
+        <v>385373</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>450662</v>
+        <v>455140</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.4237959261897206</v>
+        <v>0.4237959261897207</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3907385571399289</v>
+        <v>0.3898878633681327</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4559427709689718</v>
+        <v>0.4604724459825202</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>664</v>
@@ -2052,19 +2052,19 @@
         <v>460012</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>430583</v>
+        <v>431933</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>488172</v>
+        <v>492347</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.411710263611658</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3853713579182289</v>
+        <v>0.3865794055163693</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4369132692266146</v>
+        <v>0.4406502262306226</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1084</v>
@@ -2073,19 +2073,19 @@
         <v>878900</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>834851</v>
+        <v>834493</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>925009</v>
+        <v>923722</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.4173831898608673</v>
+        <v>0.4173831898608674</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3964644885736561</v>
+        <v>0.3962945930913035</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4392799595508577</v>
+        <v>0.4386686020286794</v>
       </c>
     </row>
     <row r="23">
@@ -2177,19 +2177,19 @@
         <v>689718</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>641480</v>
+        <v>644108</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>742027</v>
+        <v>742537</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1953909270213226</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1817253888973226</v>
+        <v>0.1824698705452377</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2102095206375426</v>
+        <v>0.2103538249578776</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>984</v>
@@ -2198,19 +2198,19 @@
         <v>726985</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>685628</v>
+        <v>689977</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>770896</v>
+        <v>772778</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.1948254148551985</v>
+        <v>0.1948254148551986</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1837423436535487</v>
+        <v>0.1849077269659793</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2065932569663088</v>
+        <v>0.2070976331122404</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1672</v>
@@ -2219,19 +2219,19 @@
         <v>1416703</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1347941</v>
+        <v>1353430</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1481311</v>
+        <v>1483861</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1951003236131261</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1856308049200144</v>
+        <v>0.1863867244555238</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.203997735506882</v>
+        <v>0.204348912987806</v>
       </c>
     </row>
     <row r="25">
@@ -2248,19 +2248,19 @@
         <v>489252</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>448506</v>
+        <v>445218</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>536607</v>
+        <v>532677</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1386006606682913</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1270577018496339</v>
+        <v>0.1261260947731707</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1520158729616611</v>
+        <v>0.1509025853666554</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>749</v>
@@ -2269,19 +2269,19 @@
         <v>529865</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>493307</v>
+        <v>491332</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>566834</v>
+        <v>568406</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1419990384957626</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1322018707589703</v>
+        <v>0.1316725619658855</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1519065353083944</v>
+        <v>0.1523278768098675</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1223</v>
@@ -2290,19 +2290,19 @@
         <v>1019117</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>960910</v>
+        <v>959828</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1073650</v>
+        <v>1077509</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1403470071452758</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1323310434460167</v>
+        <v>0.1321820718175893</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1478569471749576</v>
+        <v>0.1483884857355007</v>
       </c>
     </row>
     <row r="26">
@@ -2319,19 +2319,19 @@
         <v>682661</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>628409</v>
+        <v>633790</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>735112</v>
+        <v>735514</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1933915891097556</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1780223951410737</v>
+        <v>0.1795468816812927</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2082504921717236</v>
+        <v>0.208364387450877</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>951</v>
@@ -2340,19 +2340,19 @@
         <v>695413</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>654283</v>
+        <v>657367</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>741372</v>
+        <v>737602</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.186364467927738</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1753420116043351</v>
+        <v>0.176168381780002</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1986812355567153</v>
+        <v>0.1976706531488609</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1573</v>
@@ -2361,19 +2361,19 @@
         <v>1378074</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1310503</v>
+        <v>1311976</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1447357</v>
+        <v>1450309</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1897805167268208</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1804750627258621</v>
+        <v>0.1806779361699655</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1993218683386014</v>
+        <v>0.1997283772989887</v>
       </c>
     </row>
     <row r="27">
@@ -2390,19 +2390,19 @@
         <v>1668310</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>1601842</v>
+        <v>1595570</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>1735404</v>
+        <v>1727436</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4726168232006306</v>
+        <v>0.4726168232006305</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.4537871128989586</v>
+        <v>0.4520105034784295</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4916239939017573</v>
+        <v>0.4893669533795378</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>2676</v>
@@ -2411,19 +2411,19 @@
         <v>1779205</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>1729031</v>
+        <v>1731510</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>1837223</v>
+        <v>1841606</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.476811078721301</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.4633650401572549</v>
+        <v>0.4640293516200107</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.4923595628550627</v>
+        <v>0.4935339434881889</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>4266</v>
@@ -2432,19 +2432,19 @@
         <v>3447514</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>3353308</v>
+        <v>3362296</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>3526655</v>
+        <v>3532394</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.4747721525147774</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.4617985795092966</v>
+        <v>0.4630363513208969</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4856709364442413</v>
+        <v>0.4864613602672209</v>
       </c>
     </row>
     <row r="28">
